--- a/data/trans_dic/P1428-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1428-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.002303626328429776</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.01018352312468298</v>
+        <v>0.01018352312468297</v>
       </c>
     </row>
     <row r="5">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001709857390673776</v>
+        <v>0.002139613248155119</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
@@ -725,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.005637772398061173</v>
+        <v>0.005391728925228467</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.00200392441301291</v>
+        <v>0.001911907862226464</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.001032799365409271</v>
+        <v>0.001031383753219179</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.002682264951394657</v>
+        <v>0.00265042685035069</v>
       </c>
     </row>
     <row r="6">
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01768518163348733</v>
+        <v>0.01755866350029982</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01204847929139063</v>
+        <v>0.01189332925612168</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.01433183971693709</v>
+        <v>0.01421402502579528</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01596960351761948</v>
+        <v>0.0157823143956296</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01659546869799606</v>
+        <v>0.01652529506626185</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06131644221088066</v>
+        <v>0.05458994870637888</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01179680857018573</v>
+        <v>0.01168035191575109</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.009373680887823225</v>
+        <v>0.01017148537350563</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.007228409731114742</v>
+        <v>0.008081339886604514</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03096809730788532</v>
+        <v>0.03250143986829676</v>
       </c>
     </row>
     <row r="7">
@@ -825,7 +825,7 @@
         <v>0.003869221405208379</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.00626743971586338</v>
+        <v>0.006267439715863379</v>
       </c>
     </row>
     <row r="8">
@@ -836,38 +836,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001385472632460378</v>
+        <v>0.001384663116126657</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005737763135469902</v>
+        <v>0.005680934013128333</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
-        <v>0.004901033589463942</v>
+        <v>0.005545699752167382</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.001583614003562532</v>
+        <v>0.001576142355046531</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.004259364206147004</v>
+        <v>0.004748728544300931</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.003746482625089121</v>
+        <v>0.003815055814605208</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.004634677618428428</v>
+        <v>0.004511026115377635</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0009145567142001396</v>
+        <v>0.0009129593245826946</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.002205986045285351</v>
+        <v>0.002541238353872215</v>
       </c>
     </row>
     <row r="9">
@@ -878,38 +878,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01311909454036353</v>
+        <v>0.01252239119823663</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02612829391127025</v>
+        <v>0.0267343280056079</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01231860212945797</v>
+        <v>0.01212258839843167</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>0.02492661563737577</v>
+        <v>0.02488097238709828</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0144901750241434</v>
+        <v>0.01298870121485828</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01427919791328021</v>
+        <v>0.01411641298655177</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02618667715266598</v>
+        <v>0.02591238437525201</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01510286198191291</v>
+        <v>0.01420219275218735</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01782880797428139</v>
+        <v>0.01657943338894122</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01011548916143119</v>
+        <v>0.009136021055241753</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01353805389636122</v>
+        <v>0.01356830328240255</v>
       </c>
     </row>
     <row r="10">
@@ -933,7 +933,7 @@
         <v>0.01120733486996155</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.01109089299265319</v>
+        <v>0.0110908929926532</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.05626425394415026</v>
@@ -968,40 +968,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001427018814352584</v>
+        <v>0.001714585877480251</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004053784695324656</v>
+        <v>0.004583214292888604</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004361443845839003</v>
+        <v>0.004410698306184202</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003996746298237443</v>
+        <v>0.004000439247995194</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04043154716116552</v>
+        <v>0.0407358804825319</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01114307287198423</v>
+        <v>0.01116962004015119</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.005802243988150775</v>
+        <v>0.005508859226369319</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01904553955263048</v>
+        <v>0.01882309400776437</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02370651267383644</v>
+        <v>0.02372306679143741</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.009416385773460755</v>
+        <v>0.009601672080430302</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.006684389397280709</v>
+        <v>0.00668750482312505</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01345996385689978</v>
+        <v>0.01314537502684389</v>
       </c>
     </row>
     <row r="12">
@@ -1012,40 +1012,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01487642485896388</v>
+        <v>0.01412782744376031</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02060016792818635</v>
+        <v>0.02181143590847535</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0229487118942273</v>
+        <v>0.02315238579278771</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02340660733747871</v>
+        <v>0.02252706132073788</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07680156154772703</v>
+        <v>0.07589916251681859</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03146492216992917</v>
+        <v>0.03228413905831046</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02345395546134812</v>
+        <v>0.02374296494358771</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04108905330374397</v>
+        <v>0.04157169574932266</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04290183851801192</v>
+        <v>0.04334718127470222</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02176822699426874</v>
+        <v>0.022369966673391</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01877930697089128</v>
+        <v>0.02020161626437509</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02852107531092681</v>
+        <v>0.02716878078270672</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.05216818481065597</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.0622612494363021</v>
+        <v>0.06226124943630208</v>
       </c>
     </row>
     <row r="14">
@@ -1104,40 +1104,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0325216823229423</v>
+        <v>0.03181543837690553</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008864326794704787</v>
+        <v>0.008739330587061183</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02527189279080573</v>
+        <v>0.02450955454929147</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02448446439619694</v>
+        <v>0.02531302164565329</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.116337345191069</v>
+        <v>0.1154595193902345</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05812255423874815</v>
+        <v>0.05972641425767508</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04743048055767513</v>
+        <v>0.04728629740278115</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07118902148814331</v>
+        <v>0.06976681727041183</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08026548440141297</v>
+        <v>0.0794015897077729</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03682655242604522</v>
+        <v>0.03677800227812855</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04056204435742229</v>
+        <v>0.03920288261832107</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05064411057014614</v>
+        <v>0.05145982292834889</v>
       </c>
     </row>
     <row r="15">
@@ -1148,40 +1148,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07251652820793833</v>
+        <v>0.07129144810630357</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0334139385926195</v>
+        <v>0.03423223659816295</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05661328143151833</v>
+        <v>0.05579525977939665</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05523316005129502</v>
+        <v>0.05509778120397311</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1770295252542021</v>
+        <v>0.1780215498655674</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1059060761640661</v>
+        <v>0.1044341044734136</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08660189146485842</v>
+        <v>0.08977051477325065</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1029557739429441</v>
+        <v>0.1041932880930515</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1175926154430816</v>
+        <v>0.118619859090061</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06212805601019962</v>
+        <v>0.06340884442891311</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06627097097255714</v>
+        <v>0.06625088195301365</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07443175082138528</v>
+        <v>0.07401797321289519</v>
       </c>
     </row>
     <row r="16">
@@ -1205,7 +1205,7 @@
         <v>0.05018275686417281</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.07427782604261238</v>
+        <v>0.07427782604261236</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2804666388695268</v>
@@ -1217,7 +1217,7 @@
         <v>0.1620999591303178</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1825419874534559</v>
+        <v>0.1825419874534558</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2236817088325543</v>
@@ -1240,40 +1240,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1307731110360858</v>
+        <v>0.1253085564767834</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06803960541288304</v>
+        <v>0.06812851761118981</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03272764474676441</v>
+        <v>0.03145554162290934</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05517499043478687</v>
+        <v>0.05785261281372387</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2403240979034346</v>
+        <v>0.2365165296427251</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1627897604366575</v>
+        <v>0.1682676441284834</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1330004127919419</v>
+        <v>0.1294671691723355</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1598647846650955</v>
+        <v>0.1576421162889577</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1948909225853267</v>
+        <v>0.1945565837674338</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1252271805943816</v>
+        <v>0.1244092947781603</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08817941633012144</v>
+        <v>0.08783489686117611</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1139160090302093</v>
+        <v>0.1128819074846839</v>
       </c>
     </row>
     <row r="18">
@@ -1284,40 +1284,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2072305682130232</v>
+        <v>0.2008073623650781</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1270302107839746</v>
+        <v>0.126344731190687</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07634827603737797</v>
+        <v>0.07439908875853798</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09830263906704809</v>
+        <v>0.0996677105971475</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3238460932379595</v>
+        <v>0.3223438217224992</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2460675356982505</v>
+        <v>0.2441933294313293</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.198324598213338</v>
+        <v>0.1985192339217852</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2084513571291469</v>
+        <v>0.2056055659200781</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.252952911951951</v>
+        <v>0.2568248656554805</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1773897375755186</v>
+        <v>0.1762071753062209</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1287058847909921</v>
+        <v>0.1289438838004631</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1462574986449819</v>
+        <v>0.1455918405335324</v>
       </c>
     </row>
     <row r="19">
@@ -1376,40 +1376,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1806465955206063</v>
+        <v>0.1772472784579129</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.124592654759008</v>
+        <v>0.1204709053230718</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05000346447615196</v>
+        <v>0.04740665510131793</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08099832191034992</v>
+        <v>0.07905412443749894</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4146943592013662</v>
+        <v>0.4197097656437046</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2783310215313125</v>
+        <v>0.2730468331367478</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2073840392808942</v>
+        <v>0.2061994077806788</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2719339468708242</v>
+        <v>0.2715185495643508</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3180838762740453</v>
+        <v>0.3206671548977827</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2177989829233034</v>
+        <v>0.2190714751785939</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1399669841927623</v>
+        <v>0.1370738080816619</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1853469734164376</v>
+        <v>0.1853257547494386</v>
       </c>
     </row>
     <row r="21">
@@ -1420,40 +1420,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2765718957109716</v>
+        <v>0.2662203100347098</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2171559847547125</v>
+        <v>0.2137980446159776</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1120072124859426</v>
+        <v>0.1055091332371505</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.131548805849527</v>
+        <v>0.1317736083112374</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5188625037132696</v>
+        <v>0.5180482478887608</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3763678371211728</v>
+        <v>0.3741772738678228</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2944933584269646</v>
+        <v>0.2940603943620546</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.33397243342415</v>
+        <v>0.3380313760542496</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3942676119181532</v>
+        <v>0.3924990481356612</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2899047657365308</v>
+        <v>0.284768037265173</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1923959401689018</v>
+        <v>0.1948961772656957</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2280750081838516</v>
+        <v>0.228485214238548</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.2570387133648716</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.4279506967705662</v>
+        <v>0.4279506967705663</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.498523540745442</v>
@@ -1512,40 +1512,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.280038584444023</v>
+        <v>0.2913033824531129</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1748680479906047</v>
+        <v>0.1841865920058055</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1122200521584689</v>
+        <v>0.115997872694258</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1744605691058719</v>
+        <v>0.1718110993453175</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5378939368942808</v>
+        <v>0.5356921982186551</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.375785162446272</v>
+        <v>0.3753807976591877</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2084855360027119</v>
+        <v>0.2106454367370605</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3914997680421256</v>
+        <v>0.395628608607786</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4512283349399104</v>
+        <v>0.454028222018017</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3130813974611984</v>
+        <v>0.310117660841824</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.184785422806668</v>
+        <v>0.1844397462592016</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3151617591253907</v>
+        <v>0.3159498475051933</v>
       </c>
     </row>
     <row r="24">
@@ -1556,40 +1556,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4083228485900475</v>
+        <v>0.4130341784033713</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2853125844500941</v>
+        <v>0.2891589876307769</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1962128482361441</v>
+        <v>0.1923045257641262</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2543212301165073</v>
+        <v>0.2466532455843411</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6516169738073448</v>
+        <v>0.6491817196282028</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4784965840357636</v>
+        <v>0.4779403827921683</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3058136186708216</v>
+        <v>0.3081189599712357</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.462686980149579</v>
+        <v>0.4614921455619773</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5414255870010162</v>
+        <v>0.5450428450908339</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3926177926276189</v>
+        <v>0.391616615366265</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2521956114227531</v>
+        <v>0.2531328297906805</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3668092695539274</v>
+        <v>0.3687021071180872</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.09368856557978152</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.1438200611620118</v>
+        <v>0.1438200611620119</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.1251718002122634</v>
@@ -1637,7 +1637,7 @@
         <v>0.0654323239974996</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.09939310332200819</v>
+        <v>0.09939310332200822</v>
       </c>
     </row>
     <row r="26">
@@ -1648,40 +1648,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.06406954489756009</v>
+        <v>0.06413061285923058</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04487705761826451</v>
+        <v>0.04449598293492777</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02986940890457046</v>
+        <v>0.02993002666703197</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04558287234937346</v>
+        <v>0.04643145361170254</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1628775106410049</v>
+        <v>0.1633761469108818</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1132741397368291</v>
+        <v>0.1129019157854907</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.0833759393405461</v>
+        <v>0.08339831635429354</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1349359390395074</v>
+        <v>0.1359005572384633</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1171632283447291</v>
+        <v>0.1178405539583509</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.08166660035326381</v>
+        <v>0.08096680374312565</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.05957044010146354</v>
+        <v>0.05943313376989615</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.09357717831148313</v>
+        <v>0.09388245331345849</v>
       </c>
     </row>
     <row r="27">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08165505232821464</v>
+        <v>0.08176167258760013</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.06001787289483951</v>
+        <v>0.06050222761378406</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0427852814039725</v>
+        <v>0.04314023014249393</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.05991011374101578</v>
+        <v>0.06023141494921708</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1900033468796852</v>
+        <v>0.1892079933498254</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1356644943123643</v>
+        <v>0.1358439432947194</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1044377925977129</v>
+        <v>0.103953816694014</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1528594655681188</v>
+        <v>0.1544323734455302</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1326341441417195</v>
+        <v>0.1332283780522775</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.09581043492241495</v>
+        <v>0.09561979899922025</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.07193415597012597</v>
+        <v>0.07189207717087452</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1051403342809832</v>
+        <v>0.1054743669754317</v>
       </c>
     </row>
     <row r="28">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>845</v>
+        <v>1057</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
@@ -2016,19 +2016,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2044</v>
+        <v>1955</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1927</v>
+        <v>1838</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2066</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="7">
@@ -2039,36 +2039,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8738</v>
+        <v>8675</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5472</v>
+        <v>5401</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>6700</v>
+        <v>6645</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6871</v>
+        <v>6790</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6568</v>
+        <v>6540</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22228</v>
+        <v>19790</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11343</v>
+        <v>11231</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>8290</v>
+        <v>8995</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>5893</v>
+        <v>6588</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>23855</v>
+        <v>25036</v>
       </c>
     </row>
     <row r="8">
@@ -2171,38 +2171,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3942</v>
+        <v>3903</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="n">
-        <v>3066</v>
+        <v>3469</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2134</v>
+        <v>2380</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5099</v>
+        <v>5192</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>6013</v>
+        <v>5852</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2157</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="11">
@@ -2213,38 +2213,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9649</v>
+        <v>9210</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17952</v>
+        <v>18369</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7274</v>
+        <v>7158</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>15591</v>
+        <v>15563</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>8843</v>
+        <v>7926</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8047</v>
+        <v>7955</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>13122</v>
+        <v>12984</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>20555</v>
+        <v>19329</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>23130</v>
+        <v>21509</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>11674</v>
+        <v>10543</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>13240</v>
+        <v>13269</v>
       </c>
     </row>
     <row r="12">
@@ -2347,40 +2347,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>911</v>
+        <v>1095</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2764</v>
+        <v>3125</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2918</v>
+        <v>2951</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>27887</v>
+        <v>28097</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7907</v>
+        <v>7926</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3838</v>
+        <v>3643</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11822</v>
+        <v>11684</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>31492</v>
+        <v>31514</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>13102</v>
+        <v>13360</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>8893</v>
+        <v>8898</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>16692</v>
+        <v>16302</v>
       </c>
     </row>
     <row r="15">
@@ -2391,40 +2391,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9501</v>
+        <v>9023</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14046</v>
+        <v>14872</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15355</v>
+        <v>15491</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14499</v>
+        <v>13954</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>52973</v>
+        <v>52351</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>22327</v>
+        <v>22908</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>15512</v>
+        <v>15703</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25505</v>
+        <v>25804</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>56991</v>
+        <v>57583</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>30289</v>
+        <v>31126</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>24986</v>
+        <v>26878</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>35371</v>
+        <v>33694</v>
       </c>
     </row>
     <row r="16">
@@ -2527,40 +2527,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16884</v>
+        <v>16517</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5448</v>
+        <v>5371</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>16327</v>
+        <v>15834</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>17100</v>
+        <v>17679</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>59988</v>
+        <v>59536</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>35703</v>
+        <v>36688</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>30786</v>
+        <v>30692</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>51911</v>
+        <v>50874</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>83058</v>
+        <v>82164</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>45255</v>
+        <v>45196</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>52533</v>
+        <v>50773</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>72301</v>
+        <v>73465</v>
       </c>
     </row>
     <row r="19">
@@ -2571,40 +2571,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>37647</v>
+        <v>37011</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20537</v>
+        <v>21040</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36575</v>
+        <v>36046</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>38576</v>
+        <v>38482</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>91284</v>
+        <v>91795</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>65054</v>
+        <v>64150</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>56211</v>
+        <v>58268</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>75075</v>
+        <v>75978</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>121684</v>
+        <v>122747</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>76348</v>
+        <v>77922</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>85829</v>
+        <v>85803</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>106260</v>
+        <v>105670</v>
       </c>
     </row>
     <row r="20">
@@ -2707,40 +2707,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>50571</v>
+        <v>48458</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>29218</v>
+        <v>29256</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>15641</v>
+        <v>15033</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>33514</v>
+        <v>35140</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>97088</v>
+        <v>95549</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>72897</v>
+        <v>75350</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>66081</v>
+        <v>64326</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>96553</v>
+        <v>95210</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>154099</v>
+        <v>153835</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>109853</v>
+        <v>109135</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>85954</v>
+        <v>85619</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>137995</v>
+        <v>136742</v>
       </c>
     </row>
     <row r="23">
@@ -2751,40 +2751,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>80138</v>
+        <v>77654</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>54550</v>
+        <v>54256</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>36488</v>
+        <v>35557</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>59710</v>
+        <v>60539</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>130829</v>
+        <v>130222</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>110189</v>
+        <v>109350</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>98537</v>
+        <v>98634</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>125897</v>
+        <v>124178</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>200009</v>
+        <v>203070</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>155611</v>
+        <v>154574</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>125458</v>
+        <v>125690</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>177173</v>
+        <v>176366</v>
       </c>
     </row>
     <row r="24">
@@ -2887,40 +2887,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>52854</v>
+        <v>51860</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>38597</v>
+        <v>37320</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>16718</v>
+        <v>15849</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>32817</v>
+        <v>32029</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>142213</v>
+        <v>143933</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>98528</v>
+        <v>96657</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>78342</v>
+        <v>77894</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>119070</v>
+        <v>118888</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>202148</v>
+        <v>203789</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>144571</v>
+        <v>145416</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>99669</v>
+        <v>97609</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>156251</v>
+        <v>156233</v>
       </c>
     </row>
     <row r="27">
@@ -2931,40 +2931,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>80920</v>
+        <v>77892</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>67272</v>
+        <v>66232</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>37447</v>
+        <v>35275</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>53298</v>
+        <v>53389</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>177936</v>
+        <v>177656</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>133233</v>
+        <v>132457</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>111248</v>
+        <v>111085</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>146234</v>
+        <v>148011</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>250564</v>
+        <v>249440</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>192434</v>
+        <v>189024</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>137004</v>
+        <v>138784</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>192271</v>
+        <v>192617</v>
       </c>
     </row>
     <row r="28">
@@ -3067,40 +3067,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>58775</v>
+        <v>61140</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>43691</v>
+        <v>46019</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>28840</v>
+        <v>29811</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>53958</v>
+        <v>53138</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>179607</v>
+        <v>178872</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>146173</v>
+        <v>146015</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>83429</v>
+        <v>84294</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>181252</v>
+        <v>183164</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>245374</v>
+        <v>246896</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>200006</v>
+        <v>198112</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>121435</v>
+        <v>121208</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>243384</v>
+        <v>243993</v>
       </c>
     </row>
     <row r="31">
@@ -3111,40 +3111,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>85700</v>
+        <v>86689</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>71286</v>
+        <v>72247</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>50426</v>
+        <v>49422</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>78657</v>
+        <v>76285</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>217580</v>
+        <v>216767</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>186125</v>
+        <v>185909</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>122377</v>
+        <v>123300</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>214210</v>
+        <v>213657</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>294422</v>
+        <v>296389</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>250816</v>
+        <v>250176</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>165735</v>
+        <v>166351</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>283269</v>
+        <v>284731</v>
       </c>
     </row>
     <row r="32">
@@ -3247,40 +3247,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>209927</v>
+        <v>210127</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>153784</v>
+        <v>152478</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>101387</v>
+        <v>101593</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>160652</v>
+        <v>163643</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>550395</v>
+        <v>552080</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>402701</v>
+        <v>401377</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>295530</v>
+        <v>295609</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>501734</v>
+        <v>505320</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>779808</v>
+        <v>784316</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>570186</v>
+        <v>565300</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>413353</v>
+        <v>412400</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>677751</v>
+        <v>679962</v>
       </c>
     </row>
     <row r="35">
@@ -3291,40 +3291,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>267546</v>
+        <v>267896</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>205668</v>
+        <v>207328</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>145228</v>
+        <v>146433</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>211147</v>
+        <v>212279</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>642059</v>
+        <v>639371</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>482301</v>
+        <v>482939</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>370184</v>
+        <v>368469</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>568379</v>
+        <v>574227</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>882779</v>
+        <v>886734</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>668937</v>
+        <v>667606</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>499143</v>
+        <v>498851</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>761500</v>
+        <v>763919</v>
       </c>
     </row>
     <row r="36">
